--- a/data/Historico de Robos Nestle.xlsx
+++ b/data/Historico de Robos Nestle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ilspglobalsegu-my.sharepoint.com/personal/erivas_ai27_com/Documents/Documentos/Areas de Trabajo/Inteligencia de Negocios/Aplicaciones/Productivo/RiesgoNestle/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="8_{E08F0CF6-B952-4509-A6C2-A6E968549B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6552F8C-A551-4312-AE10-DB1A7E84C299}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{E08F0CF6-B952-4509-A6C2-A6E968549B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0106B92-1E8B-4F17-995B-CCAF32B30147}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C75024-EDBF-4766-8B75-DF80020ACE95}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4432" uniqueCount="975">
   <si>
     <t>miércoles</t>
   </si>
@@ -2523,6 +2523,465 @@
   </si>
   <si>
     <t>Tabasco</t>
+  </si>
+  <si>
+    <t>Tramo</t>
+  </si>
+  <si>
+    <t>Circuito Exterior Mexiquense Bicentenario</t>
+  </si>
+  <si>
+    <t>Camino Real A Cocotitlán</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje México-Querétaro</t>
+  </si>
+  <si>
+    <t>Calle Josefa Ortiz De Domínguez Sur</t>
+  </si>
+  <si>
+    <t>Paseo de las Jacarandas</t>
+  </si>
+  <si>
+    <t>Autopista Puebla - Orizaba</t>
+  </si>
+  <si>
+    <t>Calzada Camarones</t>
+  </si>
+  <si>
+    <t>Autopista México - Puebla</t>
+  </si>
+  <si>
+    <t>Libramiento Noreste de Querétaro</t>
+  </si>
+  <si>
+    <t>México - Cuautla</t>
+  </si>
+  <si>
+    <t>Carretera Querétaro - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Salamanca-Celaya</t>
+  </si>
+  <si>
+    <t>Autopista Champa - Lechería</t>
+  </si>
+  <si>
+    <t>Autopista León - Salamanca</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Autopista Lagos de Moreno - Zapotlanejo</t>
+  </si>
+  <si>
+    <t>Autopista Arco Norte</t>
+  </si>
+  <si>
+    <t>Privada Cañón de Santa Bárbara</t>
+  </si>
+  <si>
+    <t>Autopista Córdoba - Veracruz</t>
+  </si>
+  <si>
+    <t>Libramiento Elevado de Puebla</t>
+  </si>
+  <si>
+    <t>Cárdenas - Coatzacoalcos</t>
+  </si>
+  <si>
+    <t>Boulevard Autopista Puebla-Orizaba</t>
+  </si>
+  <si>
+    <t>Carretera a Teoloyucan</t>
+  </si>
+  <si>
+    <t>Autopista La Tinaja - Acayucan</t>
+  </si>
+  <si>
+    <t>Autopista Córdoba - Puebla</t>
+  </si>
+  <si>
+    <t>Carretera Federal México - Cuautla</t>
+  </si>
+  <si>
+    <t>Plutarco Elías Calles</t>
+  </si>
+  <si>
+    <t>Calle Los Razos</t>
+  </si>
+  <si>
+    <t>Federal Cuota 57 México-querétaro Márgen Izquierdo</t>
+  </si>
+  <si>
+    <t>Avenida General González Montecillos</t>
+  </si>
+  <si>
+    <t>Boulevard Xonacatepec</t>
+  </si>
+  <si>
+    <t>Parador Joachín (Norte-Sur)</t>
+  </si>
+  <si>
+    <t>San Cristóbal Huepalcale</t>
+  </si>
+  <si>
+    <t>Calle Guadalajara</t>
+  </si>
+  <si>
+    <t>Avenida Recursos Hidráulicos</t>
+  </si>
+  <si>
+    <t>San Luis Potosí-méxico</t>
+  </si>
+  <si>
+    <t>Autopista Guadalajara - Morelia</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro - Celaya</t>
+  </si>
+  <si>
+    <t>Libramiento Poniente de San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Autopista Puebla - Xalapa</t>
+  </si>
+  <si>
+    <t>El Salto</t>
+  </si>
+  <si>
+    <t>Carretera Zacatecas-Aguascalientes</t>
+  </si>
+  <si>
+    <t>Anillo Periférico Oriente Manuel Gómez Morín</t>
+  </si>
+  <si>
+    <t>Carretera Querétaro-San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Carretera San Luis Potosí-Matehuala</t>
+  </si>
+  <si>
+    <t>Carretera Ciudad Victoria-Ciudad Tula</t>
+  </si>
+  <si>
+    <t>Libramiento Norte</t>
+  </si>
+  <si>
+    <t>Boulevard Periférico Ecológico</t>
+  </si>
+  <si>
+    <t>Carretera Irapuato-León</t>
+  </si>
+  <si>
+    <t>Autopista Lechería  - Texcoco</t>
+  </si>
+  <si>
+    <t>Avenida Industria Automotriz</t>
+  </si>
+  <si>
+    <t>Avenida Vicente Guerrero</t>
+  </si>
+  <si>
+    <t>Calle 16 de Septiembre</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Celaya-Querétaro</t>
+  </si>
+  <si>
+    <t>Libramiento Ciudad de Apizaco</t>
+  </si>
+  <si>
+    <t>Josefa Ortiz De Domínguez Sur</t>
+  </si>
+  <si>
+    <t>Carretera Matehuala-Saltillo</t>
+  </si>
+  <si>
+    <t>Privada Josefa Ortíz De Domínguez</t>
+  </si>
+  <si>
+    <t>Autopista Minatitlán - Córdoba</t>
+  </si>
+  <si>
+    <t>Autopista Ciudad Mante - El Huizache</t>
+  </si>
+  <si>
+    <t>Calle A Jilotepec</t>
+  </si>
+  <si>
+    <t>Autopista Toluca - Ixtlahuaca de Rayón</t>
+  </si>
+  <si>
+    <t>Autopista Tijuana-Mexicali</t>
+  </si>
+  <si>
+    <t>Avenida Del Canal</t>
+  </si>
+  <si>
+    <t>Carretera a San Luis Potosi</t>
+  </si>
+  <si>
+    <t>Carretera Ojuelos de Jalisco-San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Avenida Hidalgo</t>
+  </si>
+  <si>
+    <t>Autopista León Lagos Aguascalientes</t>
+  </si>
+  <si>
+    <t>Calle Chabacano</t>
+  </si>
+  <si>
+    <t>Carretera de Cuota Toluca - Ixtlahuaca</t>
+  </si>
+  <si>
+    <t>Carretera Puebla - Belem</t>
+  </si>
+  <si>
+    <t>Calle Adolfo López Mateos</t>
+  </si>
+  <si>
+    <t>Calzada Hacienda Del Coecillo</t>
+  </si>
+  <si>
+    <t>Autopista Federal Tlaxcala</t>
+  </si>
+  <si>
+    <t>Nuevo Périferico Oriente</t>
+  </si>
+  <si>
+    <t>Autopista Toluca - Atlacomulco</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Puerto México-Ojo Caliente</t>
+  </si>
+  <si>
+    <t>Autopista La Marquesa - Toluca</t>
+  </si>
+  <si>
+    <t>Autopista México - Toluca</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Aguascalientes-León</t>
+  </si>
+  <si>
+    <t>Carretera Tepic-Puerto Vallarta</t>
+  </si>
+  <si>
+    <t>Boulevard Picacho Ajusco</t>
+  </si>
+  <si>
+    <t>San Miguel Tlaxcala</t>
+  </si>
+  <si>
+    <t>Avenida Revolución</t>
+  </si>
+  <si>
+    <t>Autopista Guadalajara - Colima</t>
+  </si>
+  <si>
+    <t>Carretera México - Texcoco</t>
+  </si>
+  <si>
+    <t>Carretera Calpulapan - Ocotoxco</t>
+  </si>
+  <si>
+    <t>Hacienda Sierra Vieja</t>
+  </si>
+  <si>
+    <t>Carretera Guadalajara-El Salto</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje León-Salamanca</t>
+  </si>
+  <si>
+    <t>Autopista Orizaba - Puebla</t>
+  </si>
+  <si>
+    <t>Avenida De Las Torres</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Celaya-Salamanca</t>
+  </si>
+  <si>
+    <t>Prolongación Décima Séptima Poniente</t>
+  </si>
+  <si>
+    <t>Avenida Andrés Molina Enríquez</t>
+  </si>
+  <si>
+    <t>Avenida Tecnológico</t>
+  </si>
+  <si>
+    <t>Autopista Lagos de Moreno - San Luis Potosi</t>
+  </si>
+  <si>
+    <t>Autopista Humilpan Centro</t>
+  </si>
+  <si>
+    <t>Autopista Méxicana Federal 57 Guanajuato</t>
+  </si>
+  <si>
+    <t>Autopista San Pablo Del Monte - Calzada Del Conde</t>
+  </si>
+  <si>
+    <t>Carretera Matehuala - Saltillo</t>
+  </si>
+  <si>
+    <t>Autopista de Peaje Querétaro - Celaya</t>
+  </si>
+  <si>
+    <t>Autopista Xalapa - Perote</t>
+  </si>
+  <si>
+    <t>Autopista Morelia - Toluca</t>
+  </si>
+  <si>
+    <t>Autopista Irapuato - Guanajuato</t>
+  </si>
+  <si>
+    <t>Calle 65 Centro Mérida</t>
+  </si>
+  <si>
+    <t>Autopista Jilotepec - Maravillas</t>
+  </si>
+  <si>
+    <t>Autopista México - Querétaro</t>
+  </si>
+  <si>
+    <t>Carretera Mexicana Federal 57 Guanajuato</t>
+  </si>
+  <si>
+    <t>Avenida Independencia - Tultitlán</t>
+  </si>
+  <si>
+    <t>Autopista Chamapa - La Venta</t>
+  </si>
+  <si>
+    <t>Autopista Chihuahua - Miguel Ahumada</t>
+  </si>
+  <si>
+    <t>Autopista Guadalajara - Zinapecuaro</t>
+  </si>
+  <si>
+    <t>Autopista Lagos de Moreno - San Juan de los Lagos</t>
+  </si>
+  <si>
+    <t>Carretera Ocotlan - Tototlan</t>
+  </si>
+  <si>
+    <t>Avenida México - Libertad Norte</t>
+  </si>
+  <si>
+    <t>Avenida Mandarina - Guadalajara</t>
+  </si>
+  <si>
+    <t>Vía Alfredo del Mazo</t>
+  </si>
+  <si>
+    <t>Autopista León - Silao</t>
+  </si>
+  <si>
+    <t>Autopista México 144</t>
+  </si>
+  <si>
+    <t>Autopista México - Pachuca</t>
+  </si>
+  <si>
+    <t>Autopista Matehuala-Saltillo</t>
+  </si>
+  <si>
+    <t>Autopista Matehuala-San Luis Potosi</t>
+  </si>
+  <si>
+    <t>Autopista México - Veracruz</t>
+  </si>
+  <si>
+    <t>Autopista México-Puebla</t>
+  </si>
+  <si>
+    <t>Autopista León - Aguascalientes</t>
+  </si>
+  <si>
+    <t>Carretera México - Cuota</t>
+  </si>
+  <si>
+    <t>Municipio de Apatzingán</t>
+  </si>
+  <si>
+    <t>Yahualica- Hidalgo</t>
+  </si>
+  <si>
+    <t>Metztitlán - Hidalgo</t>
+  </si>
+  <si>
+    <t>Huejotzingo -  Puebla</t>
+  </si>
+  <si>
+    <t>Carretera Venustiano Carranza Poniente</t>
+  </si>
+  <si>
+    <t>Calle Los Oratorios</t>
+  </si>
+  <si>
+    <t>Carretera Españita</t>
+  </si>
+  <si>
+    <t>Acatepec</t>
+  </si>
+  <si>
+    <t>Carretera Tenango del Aire - Amecameca</t>
+  </si>
+  <si>
+    <t>Metztitlán -  Hidalgo</t>
+  </si>
+  <si>
+    <t>Avenida Lago de Guadalupe</t>
+  </si>
+  <si>
+    <t>Autopista San Luis Potosí - Matehuala</t>
+  </si>
+  <si>
+    <t>Autopista Guadalajara - Zapotlanejo</t>
+  </si>
+  <si>
+    <t>Carretera Lagos de Moreno - Encarnación de Díaz</t>
+  </si>
+  <si>
+    <t>Autopista Matehuala - Saltillo</t>
+  </si>
+  <si>
+    <t>Autopista Matehuala - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Carretera Celaya - Juventino Rosas</t>
+  </si>
+  <si>
+    <t>Avenida Periferico Poniente Manuel Gómez Morin</t>
+  </si>
+  <si>
+    <t>Boulevard Timoteo Lozano</t>
+  </si>
+  <si>
+    <t>Autopista Querétaro - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Calle Justo Sierra - San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Calle Bosques - Guanajuato</t>
+  </si>
+  <si>
+    <t>Avenida José López Portillo</t>
+  </si>
+  <si>
+    <t>Carretera Estatal Libre 500 Tramo Chichimequillas A Agua Azul</t>
+  </si>
+  <si>
+    <t>Autopista Veracruz Coatzacoalcos</t>
   </si>
 </sst>
 </file>
@@ -3123,18 +3582,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7674A4B4-ADE8-4C56-A195-BDF3387A297F}">
-  <dimension ref="A1:U299"/>
+  <dimension ref="A1:V299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="22" max="22" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>764</v>
       </c>
@@ -3198,8 +3658,11 @@
       <c r="U1" s="5" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V1" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44208.101689814815</v>
       </c>
@@ -3263,8 +3726,11 @@
       <c r="U2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44236.371527777781</v>
       </c>
@@ -3328,8 +3794,11 @@
       <c r="U3" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44245.588125000002</v>
       </c>
@@ -3393,8 +3862,11 @@
       <c r="U4" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44273.378668981481</v>
       </c>
@@ -3458,8 +3930,11 @@
       <c r="U5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44287.265277777777</v>
       </c>
@@ -3523,8 +3998,11 @@
       <c r="U6" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44292.104375000003</v>
       </c>
@@ -3588,8 +4066,11 @@
       <c r="U7" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44298.323611111111</v>
       </c>
@@ -3653,8 +4134,11 @@
       <c r="U8" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44321.291504629633</v>
       </c>
@@ -3718,8 +4202,11 @@
       <c r="U9" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44322.545138888891</v>
       </c>
@@ -3783,8 +4270,11 @@
       <c r="U10" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44332.578472222223</v>
       </c>
@@ -3848,8 +4338,11 @@
       <c r="U11" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44343.207986111112</v>
       </c>
@@ -3913,8 +4406,11 @@
       <c r="U12" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44344.308321759258</v>
       </c>
@@ -3978,8 +4474,11 @@
       <c r="U13" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44379.020138888889</v>
       </c>
@@ -4043,8 +4542,11 @@
       <c r="U14" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V14" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44391.145833333336</v>
       </c>
@@ -4108,8 +4610,11 @@
       <c r="U15" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V15" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44457</v>
       </c>
@@ -4173,8 +4678,11 @@
       <c r="U16" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44459</v>
       </c>
@@ -4238,8 +4746,11 @@
       <c r="U17" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44460</v>
       </c>
@@ -4303,8 +4814,11 @@
       <c r="U18" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44466</v>
       </c>
@@ -4368,8 +4882,11 @@
       <c r="U19" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44474.797696759262</v>
       </c>
@@ -4433,8 +4950,11 @@
       <c r="U20" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44474.979490740741</v>
       </c>
@@ -4498,8 +5018,11 @@
       <c r="U21" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>44484.35833333333</v>
       </c>
@@ -4563,8 +5086,11 @@
       <c r="U22" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>44485.260983796295</v>
       </c>
@@ -4628,8 +5154,11 @@
       <c r="U23" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V23" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44488.778171296297</v>
       </c>
@@ -4693,8 +5222,11 @@
       <c r="U24" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44489.474479166667</v>
       </c>
@@ -4758,8 +5290,11 @@
       <c r="U25" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V25" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44495.289293981485</v>
       </c>
@@ -4823,8 +5358,11 @@
       <c r="U26" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V26" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44495.570081018515</v>
       </c>
@@ -4888,8 +5426,11 @@
       <c r="U27" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V27" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44497.027708333335</v>
       </c>
@@ -4953,8 +5494,11 @@
       <c r="U28" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44509</v>
       </c>
@@ -5018,8 +5562,11 @@
       <c r="U29" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>44514</v>
       </c>
@@ -5083,8 +5630,11 @@
       <c r="U30" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V30" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>44516</v>
       </c>
@@ -5148,8 +5698,11 @@
       <c r="U31" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V31" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44519</v>
       </c>
@@ -5213,8 +5766,11 @@
       <c r="U32" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V32" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>44520</v>
       </c>
@@ -5278,8 +5834,11 @@
       <c r="U33" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V33" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>44524</v>
       </c>
@@ -5343,8 +5902,11 @@
       <c r="U34" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V34" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>44534</v>
       </c>
@@ -5408,8 +5970,11 @@
       <c r="U35" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V35" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>44536</v>
       </c>
@@ -5473,8 +6038,11 @@
       <c r="U36" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V36" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>44536</v>
       </c>
@@ -5538,8 +6106,11 @@
       <c r="U37" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V37" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>44538</v>
       </c>
@@ -5603,8 +6174,11 @@
       <c r="U38" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>44545</v>
       </c>
@@ -5668,8 +6242,11 @@
       <c r="U39" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V39" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>44550</v>
       </c>
@@ -5733,8 +6310,11 @@
       <c r="U40" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V40" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>44552</v>
       </c>
@@ -5798,8 +6378,11 @@
       <c r="U41" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V41" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>44552</v>
       </c>
@@ -5863,8 +6446,11 @@
       <c r="U42" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V42" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>44563</v>
       </c>
@@ -5928,8 +6514,11 @@
       <c r="U43" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V43" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <v>44565</v>
       </c>
@@ -5993,8 +6582,11 @@
       <c r="U44" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V44" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>44565</v>
       </c>
@@ -6058,8 +6650,11 @@
       <c r="U45" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V45" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <v>44567</v>
       </c>
@@ -6123,8 +6718,11 @@
       <c r="U46" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V46" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>44568</v>
       </c>
@@ -6188,8 +6786,11 @@
       <c r="U47" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V47" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>44568</v>
       </c>
@@ -6253,8 +6854,11 @@
       <c r="U48" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V48" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <v>44573</v>
       </c>
@@ -6318,8 +6922,11 @@
       <c r="U49" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V49" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <v>44575</v>
       </c>
@@ -6383,8 +6990,11 @@
       <c r="U50" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V50" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <v>44578</v>
       </c>
@@ -6448,8 +7058,11 @@
       <c r="U51" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V51" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>44585</v>
       </c>
@@ -6513,8 +7126,11 @@
       <c r="U52" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <v>44586</v>
       </c>
@@ -6578,8 +7194,11 @@
       <c r="U53" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V53" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <v>44594</v>
       </c>
@@ -6643,8 +7262,11 @@
       <c r="U54" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V54" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>44594</v>
       </c>
@@ -6708,8 +7330,11 @@
       <c r="U55" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V55" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>44601</v>
       </c>
@@ -6773,8 +7398,11 @@
       <c r="U56" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V56" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
         <v>44601</v>
       </c>
@@ -6838,8 +7466,11 @@
       <c r="U57" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V57" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
         <v>44602</v>
       </c>
@@ -6903,8 +7534,11 @@
       <c r="U58" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V58" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
         <v>44604</v>
       </c>
@@ -6968,8 +7602,11 @@
       <c r="U59" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V59" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>44608</v>
       </c>
@@ -7033,8 +7670,11 @@
       <c r="U60" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V60" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <v>44610</v>
       </c>
@@ -7098,8 +7738,11 @@
       <c r="U61" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V61" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <v>44614</v>
       </c>
@@ -7163,8 +7806,11 @@
       <c r="U62" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V62" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <v>44616</v>
       </c>
@@ -7228,8 +7874,11 @@
       <c r="U63" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V63" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <v>44617</v>
       </c>
@@ -7293,8 +7942,11 @@
       <c r="U64" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V64" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <v>44617</v>
       </c>
@@ -7358,8 +8010,11 @@
       <c r="U65" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V65" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>44621</v>
       </c>
@@ -7423,8 +8078,11 @@
       <c r="U66" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V66" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>44621</v>
       </c>
@@ -7488,8 +8146,11 @@
       <c r="U67" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V67" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <v>44629</v>
       </c>
@@ -7553,8 +8214,11 @@
       <c r="U68" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V68" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <v>44631</v>
       </c>
@@ -7618,8 +8282,11 @@
       <c r="U69" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V69" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <v>44635</v>
       </c>
@@ -7683,8 +8350,11 @@
       <c r="U70" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V70" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <v>44636</v>
       </c>
@@ -7748,8 +8418,11 @@
       <c r="U71" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V71" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <v>44641</v>
       </c>
@@ -7813,8 +8486,11 @@
       <c r="U72" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V72" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <v>44643</v>
       </c>
@@ -7878,8 +8554,11 @@
       <c r="U73" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V73" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <v>44645</v>
       </c>
@@ -7943,8 +8622,11 @@
       <c r="U74" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V74" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <v>44650</v>
       </c>
@@ -8008,8 +8690,11 @@
       <c r="U75" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V75" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="12">
         <v>44656</v>
       </c>
@@ -8073,8 +8758,11 @@
       <c r="U76" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V76" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="12">
         <v>44657</v>
       </c>
@@ -8138,8 +8826,11 @@
       <c r="U77" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V77" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>44668</v>
       </c>
@@ -8203,8 +8894,11 @@
       <c r="U78" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V78" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="12">
         <v>44669</v>
       </c>
@@ -8268,8 +8962,11 @@
       <c r="U79" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V79" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>44671</v>
       </c>
@@ -8333,8 +9030,11 @@
       <c r="U80" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V80" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <v>44672</v>
       </c>
@@ -8398,8 +9098,11 @@
       <c r="U81" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V81" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <v>44672</v>
       </c>
@@ -8463,8 +9166,11 @@
       <c r="U82" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V82" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <v>44674</v>
       </c>
@@ -8528,8 +9234,11 @@
       <c r="U83" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V83" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <v>44678</v>
       </c>
@@ -8593,8 +9302,11 @@
       <c r="U84" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V84" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <v>44685</v>
       </c>
@@ -8658,8 +9370,11 @@
       <c r="U85" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V85" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <v>44685</v>
       </c>
@@ -8723,8 +9438,11 @@
       <c r="U86" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V86" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <v>44692</v>
       </c>
@@ -8788,8 +9506,11 @@
       <c r="U87" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V87" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <v>44693</v>
       </c>
@@ -8853,8 +9574,11 @@
       <c r="U88" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V88" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>44695</v>
       </c>
@@ -8918,8 +9642,11 @@
       <c r="U89" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V89" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
         <v>44702</v>
       </c>
@@ -8983,8 +9710,11 @@
       <c r="U90" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V90" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
         <v>44704</v>
       </c>
@@ -9048,8 +9778,11 @@
       <c r="U91" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V91" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>44706</v>
       </c>
@@ -9113,8 +9846,11 @@
       <c r="U92" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V92" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <v>44706</v>
       </c>
@@ -9178,8 +9914,11 @@
       <c r="U93" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V93" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <v>44706</v>
       </c>
@@ -9243,8 +9982,11 @@
       <c r="U94" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V94" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <v>44707</v>
       </c>
@@ -9308,8 +10050,11 @@
       <c r="U95" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V95" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
         <v>44712</v>
       </c>
@@ -9373,8 +10118,11 @@
       <c r="U96" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V96" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
         <v>44714</v>
       </c>
@@ -9438,8 +10186,11 @@
       <c r="U97" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V97" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
         <v>44719</v>
       </c>
@@ -9503,8 +10254,11 @@
       <c r="U98" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V98" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
         <v>44726</v>
       </c>
@@ -9568,8 +10322,11 @@
       <c r="U99" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V99" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>44729</v>
       </c>
@@ -9633,8 +10390,11 @@
       <c r="U100" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V100" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <v>44740</v>
       </c>
@@ -9698,8 +10458,11 @@
       <c r="U101" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V101" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <v>44740</v>
       </c>
@@ -9763,8 +10526,11 @@
       <c r="U102" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V102" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
         <v>44741</v>
       </c>
@@ -9828,8 +10594,11 @@
       <c r="U103" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V103" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A104" s="12">
         <v>44742</v>
       </c>
@@ -9893,8 +10662,11 @@
       <c r="U104" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V104" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A105" s="12">
         <v>44747</v>
       </c>
@@ -9958,8 +10730,11 @@
       <c r="U105" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V105" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A106" s="12">
         <v>44747</v>
       </c>
@@ -10023,8 +10798,11 @@
       <c r="U106" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V106" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>44750</v>
       </c>
@@ -10088,8 +10866,11 @@
       <c r="U107" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V107" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <v>44751</v>
       </c>
@@ -10153,8 +10934,11 @@
       <c r="U108" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V108" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <v>44756</v>
       </c>
@@ -10218,8 +11002,11 @@
       <c r="U109" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V109" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <v>44757</v>
       </c>
@@ -10283,8 +11070,11 @@
       <c r="U110" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V110" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>44764</v>
       </c>
@@ -10348,8 +11138,11 @@
       <c r="U111" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V111" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
         <v>44768</v>
       </c>
@@ -10413,8 +11206,11 @@
       <c r="U112" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V112" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>44770</v>
       </c>
@@ -10478,8 +11274,11 @@
       <c r="U113" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V113" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>44775</v>
       </c>
@@ -10543,8 +11342,11 @@
       <c r="U114" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V114" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A115" s="12">
         <v>44780</v>
       </c>
@@ -10608,8 +11410,11 @@
       <c r="U115" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V115" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>44781</v>
       </c>
@@ -10673,8 +11478,11 @@
       <c r="U116" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V116" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <v>44781</v>
       </c>
@@ -10738,8 +11546,11 @@
       <c r="U117" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V117" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <v>44782</v>
       </c>
@@ -10803,8 +11614,11 @@
       <c r="U118" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V118" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A119" s="12">
         <v>44782</v>
       </c>
@@ -10868,8 +11682,11 @@
       <c r="U119" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V119" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A120" s="12">
         <v>44782</v>
       </c>
@@ -10933,8 +11750,11 @@
       <c r="U120" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V120" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>44783</v>
       </c>
@@ -10998,8 +11818,11 @@
       <c r="U121" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V121" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A122" s="12">
         <v>44783</v>
       </c>
@@ -11063,8 +11886,11 @@
       <c r="U122" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V122" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>44788</v>
       </c>
@@ -11128,8 +11954,11 @@
       <c r="U123" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V123" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <v>44789</v>
       </c>
@@ -11193,8 +12022,11 @@
       <c r="U124" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V124" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <v>44792</v>
       </c>
@@ -11258,8 +12090,11 @@
       <c r="U125" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V125" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <v>44796</v>
       </c>
@@ -11323,8 +12158,11 @@
       <c r="U126" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V126" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <v>44797</v>
       </c>
@@ -11388,8 +12226,11 @@
       <c r="U127" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V127" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="12">
         <v>44798</v>
       </c>
@@ -11453,8 +12294,11 @@
       <c r="U128" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V128" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A129" s="12">
         <v>44800</v>
       </c>
@@ -11518,8 +12362,11 @@
       <c r="U129" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V129" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="12">
         <v>44800</v>
       </c>
@@ -11583,8 +12430,11 @@
       <c r="U130" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V130" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A131" s="12">
         <v>44800</v>
       </c>
@@ -11648,8 +12498,11 @@
       <c r="U131" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V131" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>44801</v>
       </c>
@@ -11713,8 +12566,11 @@
       <c r="U132" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V132" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <v>44806</v>
       </c>
@@ -11778,8 +12634,11 @@
       <c r="U133" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V133" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <v>44809</v>
       </c>
@@ -11843,8 +12702,11 @@
       <c r="U134" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V134" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <v>44810</v>
       </c>
@@ -11908,8 +12770,11 @@
       <c r="U135" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V135" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A136" s="12">
         <v>44811</v>
       </c>
@@ -11973,8 +12838,11 @@
       <c r="U136" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V136" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A137" s="12">
         <v>44813</v>
       </c>
@@ -12038,8 +12906,11 @@
       <c r="U137" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V137" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="12">
         <v>44820</v>
       </c>
@@ -12103,8 +12974,11 @@
       <c r="U138" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V138" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>44822</v>
       </c>
@@ -12168,8 +13042,11 @@
       <c r="U139" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V139" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>44825</v>
       </c>
@@ -12233,8 +13110,11 @@
       <c r="U140" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V140" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <v>44825</v>
       </c>
@@ -12298,8 +13178,11 @@
       <c r="U141" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V141" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <v>44841</v>
       </c>
@@ -12363,8 +13246,11 @@
       <c r="U142" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V142" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <v>44847</v>
       </c>
@@ -12428,8 +13314,11 @@
       <c r="U143" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V143" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <v>44848</v>
       </c>
@@ -12493,8 +13382,11 @@
       <c r="U144" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V144" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <v>44852</v>
       </c>
@@ -12558,8 +13450,11 @@
       <c r="U145" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V145" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <v>44860</v>
       </c>
@@ -12623,8 +13518,11 @@
       <c r="U146" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V146" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A147" s="10">
         <v>44866</v>
       </c>
@@ -12688,8 +13586,11 @@
       <c r="U147" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V147" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A148" s="10">
         <v>44866</v>
       </c>
@@ -12753,8 +13654,11 @@
       <c r="U148" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V148" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>44868</v>
       </c>
@@ -12818,8 +13722,11 @@
       <c r="U149" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V149" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>44875</v>
       </c>
@@ -12883,8 +13790,11 @@
       <c r="U150" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V150" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>44877</v>
       </c>
@@ -12948,8 +13858,11 @@
       <c r="U151" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V151" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>44878</v>
       </c>
@@ -13013,8 +13926,11 @@
       <c r="U152" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V152" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>44878</v>
       </c>
@@ -13078,8 +13994,11 @@
       <c r="U153" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V153" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A154" s="10">
         <v>44879</v>
       </c>
@@ -13143,8 +14062,11 @@
       <c r="U154" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V154" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A155" s="10">
         <v>44884</v>
       </c>
@@ -13208,8 +14130,11 @@
       <c r="U155" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V155" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A156" s="10">
         <v>44886</v>
       </c>
@@ -13273,8 +14198,11 @@
       <c r="U156" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V156" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A157" s="10">
         <v>44894</v>
       </c>
@@ -13338,8 +14266,11 @@
       <c r="U157" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V157" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A158" s="10">
         <v>44894</v>
       </c>
@@ -13403,8 +14334,11 @@
       <c r="U158" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V158" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A159" s="10">
         <v>44895</v>
       </c>
@@ -13468,8 +14402,11 @@
       <c r="U159" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V159" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A160" s="10">
         <v>44914</v>
       </c>
@@ -13533,8 +14470,11 @@
       <c r="U160" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V160" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" s="10">
         <v>44925</v>
       </c>
@@ -13598,8 +14538,11 @@
       <c r="U161" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V161" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="10">
         <v>44902</v>
       </c>
@@ -13663,8 +14606,11 @@
       <c r="U162" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V162" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="10">
         <v>44896</v>
       </c>
@@ -13728,8 +14674,11 @@
       <c r="U163" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V163" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="10">
         <v>44906</v>
       </c>
@@ -13793,8 +14742,11 @@
       <c r="U164" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V164" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="10">
         <v>44900</v>
       </c>
@@ -13858,8 +14810,11 @@
       <c r="U165" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V165" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="10">
         <v>44904</v>
       </c>
@@ -13923,8 +14878,11 @@
       <c r="U166" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V166" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="10">
         <v>44916</v>
       </c>
@@ -13988,8 +14946,11 @@
       <c r="U167" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V167" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="10">
         <v>44910</v>
       </c>
@@ -14053,8 +15014,11 @@
       <c r="U168" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V168" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="10">
         <v>44922</v>
       </c>
@@ -14118,8 +15082,11 @@
       <c r="U169" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V169" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="10">
         <v>44923</v>
       </c>
@@ -14183,8 +15150,11 @@
       <c r="U170" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V170" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="10">
         <v>44922</v>
       </c>
@@ -14248,8 +15218,11 @@
       <c r="U171" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V171" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="10">
         <v>44915</v>
       </c>
@@ -14313,8 +15286,11 @@
       <c r="U172" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V172" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="10">
         <v>44922</v>
       </c>
@@ -14378,8 +15354,11 @@
       <c r="U173" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V173" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="10">
         <v>44900</v>
       </c>
@@ -14443,8 +15422,11 @@
       <c r="U174" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V174" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="9">
         <v>44933</v>
       </c>
@@ -14508,8 +15490,11 @@
       <c r="U175" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V175" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="9">
         <v>44936</v>
       </c>
@@ -14573,8 +15558,11 @@
       <c r="U176" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V176" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" s="9">
         <v>44938</v>
       </c>
@@ -14638,8 +15626,11 @@
       <c r="U177" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V177" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" s="9">
         <v>44939</v>
       </c>
@@ -14703,8 +15694,11 @@
       <c r="U178" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V178" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" s="9">
         <v>44939</v>
       </c>
@@ -14768,8 +15762,11 @@
       <c r="U179" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V179" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" s="9">
         <v>44945</v>
       </c>
@@ -14833,8 +15830,11 @@
       <c r="U180" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V180" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="9">
         <v>44957</v>
       </c>
@@ -14898,8 +15898,11 @@
       <c r="U181" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V181" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <v>44948</v>
       </c>
@@ -14963,8 +15966,11 @@
       <c r="U182" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V182" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" s="9">
         <v>44936</v>
       </c>
@@ -15028,8 +16034,11 @@
       <c r="U183" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V183" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" s="9">
         <v>44949</v>
       </c>
@@ -15093,8 +16102,11 @@
       <c r="U184" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V184" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" s="9">
         <v>44951</v>
       </c>
@@ -15158,8 +16170,11 @@
       <c r="U185" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V185" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" s="9">
         <v>44951</v>
       </c>
@@ -15223,8 +16238,11 @@
       <c r="U186" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V186" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" s="9">
         <v>44952</v>
       </c>
@@ -15288,8 +16306,11 @@
       <c r="U187" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V187" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="9">
         <v>44954</v>
       </c>
@@ -15353,8 +16374,11 @@
       <c r="U188" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V188" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>44966</v>
       </c>
@@ -15418,8 +16442,11 @@
       <c r="U189" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V189" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>44982</v>
       </c>
@@ -15483,8 +16510,11 @@
       <c r="U190" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V190" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>44967</v>
       </c>
@@ -15548,8 +16578,11 @@
       <c r="U191" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V191" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>44958</v>
       </c>
@@ -15613,8 +16646,11 @@
       <c r="U192" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V192" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>44964</v>
       </c>
@@ -15678,8 +16714,11 @@
       <c r="U193" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V193" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>44964</v>
       </c>
@@ -15743,8 +16782,11 @@
       <c r="U194" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V194" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>44966</v>
       </c>
@@ -15808,8 +16850,11 @@
       <c r="U195" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V195" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>44967</v>
       </c>
@@ -15873,8 +16918,11 @@
       <c r="U196" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V196" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>44970</v>
       </c>
@@ -15938,8 +16986,11 @@
       <c r="U197" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V197" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>44977</v>
       </c>
@@ -16003,8 +17054,11 @@
       <c r="U198" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V198" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>44978</v>
       </c>
@@ -16068,8 +17122,11 @@
       <c r="U199" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V199" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>44979</v>
       </c>
@@ -16133,8 +17190,11 @@
       <c r="U200" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V200" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>44971</v>
       </c>
@@ -16198,8 +17258,11 @@
       <c r="U201" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V201" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>44979</v>
       </c>
@@ -16263,8 +17326,11 @@
       <c r="U202" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V202" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>44985</v>
       </c>
@@ -16328,8 +17394,11 @@
       <c r="U203" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V203" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>44986</v>
       </c>
@@ -16393,8 +17462,11 @@
       <c r="U204" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V204" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>44989</v>
       </c>
@@ -16458,8 +17530,11 @@
       <c r="U205" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V205" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>44994</v>
       </c>
@@ -16523,8 +17598,11 @@
       <c r="U206" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V206" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="207" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>44995</v>
       </c>
@@ -16588,8 +17666,11 @@
       <c r="U207" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V207" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>45003</v>
       </c>
@@ -16653,8 +17734,11 @@
       <c r="U208" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V208" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>45005</v>
       </c>
@@ -16718,8 +17802,11 @@
       <c r="U209" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V209" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>45006</v>
       </c>
@@ -16783,8 +17870,11 @@
       <c r="U210" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V210" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>45006</v>
       </c>
@@ -16848,8 +17938,11 @@
       <c r="U211" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V211" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>45012</v>
       </c>
@@ -16913,8 +18006,11 @@
       <c r="U212" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V212" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="213" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>45015</v>
       </c>
@@ -16978,8 +18074,11 @@
       <c r="U213" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V213" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="214" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>45019</v>
       </c>
@@ -17043,8 +18142,11 @@
       <c r="U214" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V214" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>45029</v>
       </c>
@@ -17108,8 +18210,11 @@
       <c r="U215" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V215" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>45029</v>
       </c>
@@ -17173,8 +18278,11 @@
       <c r="U216" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V216" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="217" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>45042</v>
       </c>
@@ -17238,8 +18346,11 @@
       <c r="U217" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V217" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>45042</v>
       </c>
@@ -17303,8 +18414,11 @@
       <c r="U218" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V218" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>45048</v>
       </c>
@@ -17368,8 +18482,11 @@
       <c r="U219" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V219" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>45068</v>
       </c>
@@ -17433,8 +18550,11 @@
       <c r="U220" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V220" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>45071</v>
       </c>
@@ -17498,8 +18618,11 @@
       <c r="U221" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V221" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>45076</v>
       </c>
@@ -17563,8 +18686,11 @@
       <c r="U222" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V222" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>45077</v>
       </c>
@@ -17628,8 +18754,11 @@
       <c r="U223" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V223" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="224" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>45000</v>
       </c>
@@ -17693,8 +18822,11 @@
       <c r="U224" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V224" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>45001</v>
       </c>
@@ -17758,8 +18890,11 @@
       <c r="U225" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V225" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>45002</v>
       </c>
@@ -17823,8 +18958,11 @@
       <c r="U226" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V226" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>45006</v>
       </c>
@@ -17888,8 +19026,11 @@
       <c r="U227" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V227" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>45013</v>
       </c>
@@ -17953,8 +19094,11 @@
       <c r="U228" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V228" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>45018</v>
       </c>
@@ -18018,8 +19162,11 @@
       <c r="U229" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V229" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>45029</v>
       </c>
@@ -18083,8 +19230,11 @@
       <c r="U230" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V230" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>45031</v>
       </c>
@@ -18148,8 +19298,11 @@
       <c r="U231" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V231" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>45054</v>
       </c>
@@ -18213,8 +19366,11 @@
       <c r="U232" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V232" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="233" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>45055</v>
       </c>
@@ -18278,8 +19434,11 @@
       <c r="U233" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V233" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>45061</v>
       </c>
@@ -18343,8 +19502,11 @@
       <c r="U234" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V234" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="235" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>45063</v>
       </c>
@@ -18408,8 +19570,11 @@
       <c r="U235" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V235" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>45071</v>
       </c>
@@ -18473,8 +19638,11 @@
       <c r="U236" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V236" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>45072</v>
       </c>
@@ -18538,8 +19706,11 @@
       <c r="U237" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V237" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>45073</v>
       </c>
@@ -18603,8 +19774,11 @@
       <c r="U238" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V238" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>45075</v>
       </c>
@@ -18668,8 +19842,11 @@
       <c r="U239" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V239" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>45079</v>
       </c>
@@ -18733,8 +19910,11 @@
       <c r="U240" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V240" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>45083</v>
       </c>
@@ -18798,8 +19978,11 @@
       <c r="U241" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V241" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>45084</v>
       </c>
@@ -18863,8 +20046,11 @@
       <c r="U242" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V242" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>45085</v>
       </c>
@@ -18928,8 +20114,11 @@
       <c r="U243" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V243" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>45085</v>
       </c>
@@ -18993,8 +20182,11 @@
       <c r="U244" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V244" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>45090</v>
       </c>
@@ -19058,8 +20250,11 @@
       <c r="U245" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V245" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>45091</v>
       </c>
@@ -19123,8 +20318,11 @@
       <c r="U246" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V246" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>45090</v>
       </c>
@@ -19188,8 +20386,11 @@
       <c r="U247" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V247" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>45091</v>
       </c>
@@ -19253,8 +20454,11 @@
       <c r="U248" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V248" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>45098</v>
       </c>
@@ -19318,8 +20522,11 @@
       <c r="U249" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V249" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>45101</v>
       </c>
@@ -19383,8 +20590,11 @@
       <c r="U250" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V250" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>45106</v>
       </c>
@@ -19448,8 +20658,11 @@
       <c r="U251" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V251" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>45107</v>
       </c>
@@ -19513,8 +20726,11 @@
       <c r="U252" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V252" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>45107</v>
       </c>
@@ -19578,8 +20794,11 @@
       <c r="U253" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V253" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>45118</v>
       </c>
@@ -19643,8 +20862,11 @@
       <c r="U254" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V254" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>45118</v>
       </c>
@@ -19708,8 +20930,11 @@
       <c r="U255" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V255" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>45119</v>
       </c>
@@ -19773,8 +20998,11 @@
       <c r="U256" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V256" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>45119</v>
       </c>
@@ -19838,8 +21066,11 @@
       <c r="U257" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V257" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>45120</v>
       </c>
@@ -19903,8 +21134,11 @@
       <c r="U258" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V258" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="259" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>45124</v>
       </c>
@@ -19968,8 +21202,11 @@
       <c r="U259" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V259" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>45131</v>
       </c>
@@ -20033,8 +21270,11 @@
       <c r="U260" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V260" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="261" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>45138</v>
       </c>
@@ -20098,8 +21338,11 @@
       <c r="U261" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>45124</v>
       </c>
@@ -20163,8 +21406,11 @@
       <c r="U262" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V262" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>45126</v>
       </c>
@@ -20228,8 +21474,11 @@
       <c r="U263" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V263" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>45126</v>
       </c>
@@ -20293,8 +21542,11 @@
       <c r="U264" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V264" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="265" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>45120</v>
       </c>
@@ -20358,8 +21610,11 @@
       <c r="U265" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V265" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>45129</v>
       </c>
@@ -20423,8 +21678,11 @@
       <c r="U266" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V266" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="267" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>45131</v>
       </c>
@@ -20488,8 +21746,11 @@
       <c r="U267" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V267" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="268" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>45133</v>
       </c>
@@ -20553,8 +21814,11 @@
       <c r="U268" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V268" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>45146</v>
       </c>
@@ -20618,8 +21882,11 @@
       <c r="U269" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V269" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>45149</v>
       </c>
@@ -20683,8 +21950,11 @@
       <c r="U270" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V270" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>45149</v>
       </c>
@@ -20748,8 +22018,11 @@
       <c r="U271" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V271" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>45169</v>
       </c>
@@ -20813,8 +22086,11 @@
       <c r="U272" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V272" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="273" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>45146</v>
       </c>
@@ -20878,8 +22154,11 @@
       <c r="U273" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V273" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="274" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>45152</v>
       </c>
@@ -20943,8 +22222,11 @@
       <c r="U274" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V274" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="275" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>45169</v>
       </c>
@@ -21008,8 +22290,11 @@
       <c r="U275" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V275" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="276" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>45170</v>
       </c>
@@ -21073,8 +22358,11 @@
       <c r="U276" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V276" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>45171</v>
       </c>
@@ -21138,8 +22426,11 @@
       <c r="U277" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V277" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>45172</v>
       </c>
@@ -21203,8 +22494,11 @@
       <c r="U278" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V278" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>45173</v>
       </c>
@@ -21268,8 +22562,11 @@
       <c r="U279" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V279" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>45173</v>
       </c>
@@ -21333,8 +22630,11 @@
       <c r="U280" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V280" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>45181</v>
       </c>
@@ -21398,8 +22698,11 @@
       <c r="U281" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V281" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>45182</v>
       </c>
@@ -21463,8 +22766,11 @@
       <c r="U282" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V282" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>45182</v>
       </c>
@@ -21528,8 +22834,11 @@
       <c r="U283" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V283" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>45183</v>
       </c>
@@ -21593,8 +22902,11 @@
       <c r="U284" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>45183</v>
       </c>
@@ -21658,8 +22970,11 @@
       <c r="U285" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V285" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>45186</v>
       </c>
@@ -21723,8 +23038,11 @@
       <c r="U286" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V286" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>45187</v>
       </c>
@@ -21788,8 +23106,11 @@
       <c r="U287" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V287" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>45189</v>
       </c>
@@ -21853,8 +23174,11 @@
       <c r="U288" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V288" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>45203</v>
       </c>
@@ -21918,8 +23242,11 @@
       <c r="U289" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V289" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>45207</v>
       </c>
@@ -21983,8 +23310,11 @@
       <c r="U290" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V290" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>45210</v>
       </c>
@@ -22048,8 +23378,11 @@
       <c r="U291" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V291" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>45210</v>
       </c>
@@ -22113,8 +23446,11 @@
       <c r="U292" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V292" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>45210</v>
       </c>
@@ -22178,8 +23514,11 @@
       <c r="U293" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V293" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>45211</v>
       </c>
@@ -22243,8 +23582,11 @@
       <c r="U294" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V294" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>45216</v>
       </c>
@@ -22308,8 +23650,11 @@
       <c r="U295" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V295" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>45220</v>
       </c>
@@ -22373,8 +23718,11 @@
       <c r="U296" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V296" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>45223</v>
       </c>
@@ -22438,8 +23786,11 @@
       <c r="U297" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V297" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>45224</v>
       </c>
@@ -22503,8 +23854,11 @@
       <c r="U298" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V298" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>45224</v>
       </c>
@@ -22567,6 +23921,9 @@
       </c>
       <c r="U299" t="s">
         <v>805</v>
+      </c>
+      <c r="V299" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>
